--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Insl5-Rxfp4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.931199</v>
+        <v>5.002662333333333</v>
       </c>
       <c r="N2">
-        <v>11.793597</v>
+        <v>15.007987</v>
       </c>
       <c r="O2">
-        <v>0.2998613811999711</v>
+        <v>0.3527593062265809</v>
       </c>
       <c r="P2">
-        <v>0.2998613811999711</v>
+        <v>0.3527593062265809</v>
       </c>
       <c r="Q2">
-        <v>0.512828840749</v>
+        <v>0.6526023040456668</v>
       </c>
       <c r="R2">
-        <v>4.615459566741</v>
+        <v>5.873420736411</v>
       </c>
       <c r="S2">
-        <v>0.2998613811999711</v>
+        <v>0.3527593062265809</v>
       </c>
       <c r="T2">
-        <v>0.2998613811999711</v>
+        <v>0.3527593062265809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>15.426568</v>
       </c>
       <c r="O3">
-        <v>0.3922324959599074</v>
+        <v>0.3625979570169652</v>
       </c>
       <c r="P3">
-        <v>0.3922324959599074</v>
+        <v>0.3625979570169652</v>
       </c>
       <c r="Q3">
         <v>0.6708037407226668</v>
@@ -632,10 +632,10 @@
         <v>6.037233666504</v>
       </c>
       <c r="S3">
-        <v>0.3922324959599074</v>
+        <v>0.3625979570169652</v>
       </c>
       <c r="T3">
-        <v>0.3922324959599074</v>
+        <v>0.3625979570169652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>12.109998</v>
       </c>
       <c r="O4">
-        <v>0.3079061228401215</v>
+        <v>0.2846427367564539</v>
       </c>
       <c r="P4">
-        <v>0.3079061228401215</v>
+        <v>0.2846427367564539</v>
       </c>
       <c r="Q4">
         <v>0.5265871163660001</v>
@@ -694,10 +694,10 @@
         <v>4.739284047294</v>
       </c>
       <c r="S4">
-        <v>0.3079061228401215</v>
+        <v>0.2846427367564539</v>
       </c>
       <c r="T4">
-        <v>0.3079061228401215</v>
+        <v>0.2846427367564539</v>
       </c>
     </row>
   </sheetData>
